--- a/data/trans_dic/P68-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P68-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1687642443624463</v>
+        <v>0.1681228437301373</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2376013213161869</v>
+        <v>0.2369522451669382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1743575334911408</v>
+        <v>0.1692197533452167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1589835291370483</v>
+        <v>0.1616768486063584</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1518040751726542</v>
+        <v>0.149604987085285</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1574171529885215</v>
+        <v>0.1566158594883114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1245001221424938</v>
+        <v>0.1270722490998298</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1797708118908361</v>
+        <v>0.1751978354950151</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.171881440920834</v>
+        <v>0.1727720182707354</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2230027140518932</v>
+        <v>0.221840962443307</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1700762915456206</v>
+        <v>0.1716328519909382</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1783882464561769</v>
+        <v>0.1793725142448672</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.250724114602625</v>
+        <v>0.2510257371400184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3481750941740172</v>
+        <v>0.3428765916593404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.285800103673887</v>
+        <v>0.280341876285797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2561623251783778</v>
+        <v>0.2567570466945182</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2769385560194341</v>
+        <v>0.2762477227883823</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2892945951495331</v>
+        <v>0.2998628817975164</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2455929306365406</v>
+        <v>0.2502204659696634</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2632261882321773</v>
+        <v>0.262183140998029</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2416013637573881</v>
+        <v>0.2463889110321981</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3142967387937725</v>
+        <v>0.3115630241740989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2550829351434452</v>
+        <v>0.2559072445715807</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2444801496348218</v>
+        <v>0.244888362177401</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2242191338373297</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.226642611096258</v>
+        <v>0.2266426110962579</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2300975119210342</v>
+        <v>0.2313740373398616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1865329607094232</v>
+        <v>0.1885018001354682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1967503803510393</v>
+        <v>0.1989325677535219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1770977341134473</v>
+        <v>0.1778497069418019</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.154479575536317</v>
+        <v>0.1543395519479972</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.18312233237942</v>
+        <v>0.1814347727054097</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.155726571992336</v>
+        <v>0.1572973397077375</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2094419447244277</v>
+        <v>0.2087171460840277</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2137821178051034</v>
+        <v>0.2145248771022727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1977576778380126</v>
+        <v>0.1991815206633987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1938719176420426</v>
+        <v>0.1920148876774692</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2012446040361279</v>
+        <v>0.2025263010232043</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3089942296942828</v>
+        <v>0.3081071502082609</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2715783914915509</v>
+        <v>0.2702794788916643</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2829022114112199</v>
+        <v>0.2851707022896822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2560163801478559</v>
+        <v>0.2530604590369478</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2546711570454155</v>
+        <v>0.2577222719303808</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2920495995895628</v>
+        <v>0.287386933271005</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2583086191255711</v>
+        <v>0.2569426682531472</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.279912606709769</v>
+        <v>0.2803152594654056</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2738197216591693</v>
+        <v>0.2786842497525818</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2651547234636598</v>
+        <v>0.2642544030002501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.25605598034052</v>
+        <v>0.2613831187312733</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2531026987222152</v>
+        <v>0.255351079895847</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2410709512098665</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2184580883482499</v>
+        <v>0.2184580883482498</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2528138645699999</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.225265830402342</v>
+        <v>0.2257702212160301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2022051108432904</v>
+        <v>0.2004213343182514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2614479300077194</v>
+        <v>0.2568712526032152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1294966683897227</v>
+        <v>0.1351763832066429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1638490321581891</v>
+        <v>0.1684574454732863</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1923290746684433</v>
+        <v>0.1925513631591897</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1921750761472754</v>
+        <v>0.1933169550175671</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1775266457907259</v>
+        <v>0.1824215044799719</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2192071523552842</v>
+        <v>0.2141166312198095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.211998445578797</v>
+        <v>0.2077666132150378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2434374341112911</v>
+        <v>0.2431748417016039</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1634722667933896</v>
+        <v>0.1645706654650724</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3152856095095415</v>
+        <v>0.3242426946776384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3086155242658847</v>
+        <v>0.3030369885289774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3560391991334305</v>
+        <v>0.3567133902246771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2147448673200285</v>
+        <v>0.2192792144913643</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2774996914542797</v>
+        <v>0.2763813999427402</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3175690572523713</v>
+        <v>0.3141209820865997</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2973834959092934</v>
+        <v>0.3030675720899489</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2654258714073467</v>
+        <v>0.2660504460116934</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2894675676545863</v>
+        <v>0.2907960350957396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2914189435834855</v>
+        <v>0.2859444607604762</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3192663116263235</v>
+        <v>0.3149582015134031</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.230019593427511</v>
+        <v>0.2221888961130194</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2095524525456111</v>
+        <v>0.2121701222713512</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1582094638892093</v>
+        <v>0.1581506247250252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1768537154168369</v>
+        <v>0.1758951408075162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1736392965242668</v>
+        <v>0.1770071549538162</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1904972247274848</v>
+        <v>0.1893057321530905</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1682078876707092</v>
+        <v>0.1669397617864659</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.163633619567525</v>
+        <v>0.1607628778992593</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2068693549088987</v>
+        <v>0.2094121437285091</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2113837475007058</v>
+        <v>0.2120982459971509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1709905805559715</v>
+        <v>0.1738471145290025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1838642465220884</v>
+        <v>0.1823906331818986</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2012997272110274</v>
+        <v>0.1995499119740104</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2821201645481445</v>
+        <v>0.2845647166599909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2319291227157844</v>
+        <v>0.2346973724141028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2612159562721142</v>
+        <v>0.2598012613190848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2501125511545963</v>
+        <v>0.2537221143664961</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2743630570724906</v>
+        <v>0.2763014304562728</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2671860375670944</v>
+        <v>0.2648020247327922</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2543093339029645</v>
+        <v>0.2517190251358503</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.277093318420537</v>
+        <v>0.2818407964712952</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2673199106349319</v>
+        <v>0.2682070145121594</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2349726349011878</v>
+        <v>0.2330659501824558</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.246382439058341</v>
+        <v>0.2453463940650769</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2520360218898751</v>
+        <v>0.2520338572061872</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>63987</v>
+        <v>63744</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>63900</v>
+        <v>63725</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41693</v>
+        <v>40465</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58000</v>
+        <v>58983</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23355</v>
+        <v>23017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25387</v>
+        <v>25258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20317</v>
+        <v>20737</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>49761</v>
+        <v>48495</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>91613</v>
+        <v>92088</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>95938</v>
+        <v>95439</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68424</v>
+        <v>69050</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>114457</v>
+        <v>115089</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>95062</v>
+        <v>95176</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>93637</v>
+        <v>92212</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68342</v>
+        <v>67037</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>93453</v>
+        <v>93670</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42607</v>
+        <v>42501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>46656</v>
+        <v>48360</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40078</v>
+        <v>40833</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>72861</v>
+        <v>72573</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>128774</v>
+        <v>131326</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>135214</v>
+        <v>134038</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>102623</v>
+        <v>102954</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>156863</v>
+        <v>157125</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>126771</v>
+        <v>127475</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76234</v>
+        <v>77039</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>80185</v>
+        <v>81074</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>109191</v>
+        <v>109654</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40961</v>
+        <v>40924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49735</v>
+        <v>49277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>42475</v>
+        <v>42903</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>91082</v>
+        <v>90767</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>174468</v>
+        <v>175074</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>134532</v>
+        <v>135501</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>131890</v>
+        <v>130627</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>211596</v>
+        <v>212944</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>170239</v>
+        <v>169750</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>110992</v>
+        <v>110461</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>115295</v>
+        <v>116220</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>157848</v>
+        <v>156026</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67527</v>
+        <v>68336</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>79320</v>
+        <v>78053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70454</v>
+        <v>70081</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121729</v>
+        <v>121904</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>223465</v>
+        <v>227434</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>180381</v>
+        <v>179769</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>174194</v>
+        <v>177818</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>266122</v>
+        <v>268486</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>91419</v>
+        <v>91624</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>64983</v>
+        <v>64410</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>94280</v>
+        <v>92630</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51259</v>
+        <v>53507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34918</v>
+        <v>35900</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>41224</v>
+        <v>41272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51615</v>
+        <v>51921</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>57463</v>
+        <v>59048</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>135676</v>
+        <v>132525</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>113571</v>
+        <v>111303</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>153168</v>
+        <v>153003</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>117622</v>
+        <v>118412</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>127951</v>
+        <v>131586</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>99180</v>
+        <v>97388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>128390</v>
+        <v>128633</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85003</v>
+        <v>86798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59139</v>
+        <v>58900</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>68068</v>
+        <v>67329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79872</v>
+        <v>81398</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>85915</v>
+        <v>86118</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>179163</v>
+        <v>179985</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>156117</v>
+        <v>153184</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>200879</v>
+        <v>198169</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>165504</v>
+        <v>159870</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>115772</v>
+        <v>117218</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65924</v>
+        <v>65899</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70224</v>
+        <v>69844</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>88292</v>
+        <v>90005</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>73479</v>
+        <v>73020</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50238</v>
+        <v>49859</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52746</v>
+        <v>51821</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>90870</v>
+        <v>91987</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>198320</v>
+        <v>198990</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>122319</v>
+        <v>124362</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>132275</v>
+        <v>131215</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>190780</v>
+        <v>189121</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155864</v>
+        <v>157215</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>96642</v>
+        <v>97796</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>103722</v>
+        <v>103161</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>127177</v>
+        <v>129013</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>105828</v>
+        <v>106576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>79799</v>
+        <v>79087</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81975</v>
+        <v>81140</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121716</v>
+        <v>123802</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>250799</v>
+        <v>251631</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>168088</v>
+        <v>166724</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>177252</v>
+        <v>176507</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>238865</v>
+        <v>238863</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
     </row>
     <row r="24">
